--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail10 Features.xlsx
@@ -2261,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,29 +2272,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2315,115 +2313,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2440,72 +2428,66 @@
         <v>8.605826914058488e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.967222271744333</v>
+        <v>5.900582530695966e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.44319526493156</v>
+        <v>1.906529515571481e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.900582530695966e-07</v>
+        <v>0.1065733256339721</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.906529515571481e-06</v>
+        <v>0.3447615115703555</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1065733256339721</v>
+        <v>0.1299117379331882</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3447615115703555</v>
+        <v>1.930449175066829</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1299117379331882</v>
+        <v>2.81082865049594</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.949137859267544</v>
+        <v>5.547313332946441</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.81082865049594</v>
+        <v>2.714322108308841e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.547313332946441</v>
+        <v>4864251165.908593</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.714322108308841e-17</v>
+        <v>2.481987264000613e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4864251165.908593</v>
+        <v>642.2341093046434</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.481987264000613e-08</v>
+        <v>0.0001506028688562565</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>642.2341093046434</v>
+        <v>8.10361259177315</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001506028688562565</v>
+        <v>1.499921702820183</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.10361259177315</v>
+        <v>0.009889870071447513</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.499921702820183</v>
+        <v>3.438891767725619</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009889870071447513</v>
+        <v>0.9613833717702659</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.438891767725619</v>
+        <v>1.069626079052783</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9613833717702659</v>
+        <v>235</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.069626079052783</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.371812316669237</v>
       </c>
     </row>
@@ -2520,72 +2502,66 @@
         <v>6.104717603990079e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.966269179221737</v>
+        <v>4.272534947476603e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16.74455208324213</v>
+        <v>1.914245026782889e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.272534947476603e-07</v>
+        <v>0.1051232981159692</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.914245026782889e-06</v>
+        <v>0.3577809578316823</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1051232981159692</v>
+        <v>0.1387226346993363</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3577809578316823</v>
+        <v>1.930185344220401</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1387226346993363</v>
+        <v>2.818986221633285</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94980910330329</v>
+        <v>5.550719759587998</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.818986221633285</v>
+        <v>2.710991620585532e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.550719759587998</v>
+        <v>4903106345.254731</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.710991620585532e-17</v>
+        <v>2.466266997838141e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4903106345.254731</v>
+        <v>651.7346347402022</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.466266997838141e-08</v>
+        <v>0.0001444948297584162</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>651.7346347402022</v>
+        <v>8.792945488454645</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001444948297584162</v>
+        <v>1.287148532137291</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.792945488454645</v>
+        <v>0.01117174641561265</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.287148532137291</v>
+        <v>3.373309364107315</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01117174641561265</v>
+        <v>0.9612963116673625</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.373309364107315</v>
+        <v>1.093507857892979</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9612963116673625</v>
+        <v>246</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.093507857892979</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>246</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.265152759782567</v>
       </c>
     </row>
@@ -2600,72 +2576,66 @@
         <v>4.304680331394306e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.854276249660992</v>
+        <v>3.076475782283127e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>16.47291071969829</v>
+        <v>1.919588377379191e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.076475782283127e-07</v>
+        <v>0.101896065728647</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.919588377379191e-06</v>
+        <v>0.3732618969116531</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.101896065728647</v>
+        <v>0.1493435315224761</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3732618969116531</v>
+        <v>1.933666944519663</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1493435315224761</v>
+        <v>2.778552869130599</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958434415976583</v>
+        <v>5.528611452589476</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.778552869130599</v>
+        <v>2.732716884922904e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.528611452589476</v>
+        <v>5220040496.439121</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.732716884922904e-17</v>
+        <v>2.324133265057317e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5220040496.439121</v>
+        <v>744.6331811737776</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.324133265057317e-08</v>
+        <v>0.0001495814408736714</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>744.6331811737776</v>
+        <v>10.37063100702693</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001495814408736714</v>
+        <v>1.143839002046859</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.37063100702693</v>
+        <v>0.01608748209378835</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.143839002046859</v>
+        <v>3.14616104099165</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01608748209378835</v>
+        <v>0.962090614489241</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.14616104099165</v>
+        <v>1.073355672439859</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.962090614489241</v>
+        <v>250</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.073355672439859</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.240985642351178</v>
       </c>
     </row>
@@ -2680,72 +2650,66 @@
         <v>3.04306231703446e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.475192499687384</v>
+        <v>2.199506182748959e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.62962431664446</v>
+        <v>1.923183515298913e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.199506182748959e-07</v>
+        <v>0.09498929782808894</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.923183515298913e-06</v>
+        <v>0.3882638798742937</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.09498929782808894</v>
+        <v>0.1593808334323081</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3882638798742937</v>
+        <v>1.92157987433437</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1593808334323081</v>
+        <v>2.958324504571822</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.943320961464338</v>
+        <v>5.475193094898688</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.958324504571822</v>
+        <v>2.786300148250873e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.475193094898688</v>
+        <v>5084945902.341378</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.786300148250873e-17</v>
+        <v>2.381511728275676e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5084945902.341378</v>
+        <v>720.4445691137465</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.381511728275676e-08</v>
+        <v>0.0001537546447286472</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>720.4445691137465</v>
+        <v>10.62561099197704</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001537546447286472</v>
+        <v>1.128867741683748</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.62561099197704</v>
+        <v>0.01735945428312346</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.128867741683748</v>
+        <v>3.133370594675371</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01735945428312346</v>
+        <v>0.9615428003980758</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.133370594675371</v>
+        <v>1.044862006676735</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9615428003980758</v>
+        <v>223</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.044862006676735</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.348626997700548</v>
       </c>
     </row>
@@ -2760,72 +2724,66 @@
         <v>2.209747099936938e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.628041989203264</v>
+        <v>1.557447104114149e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9.912765531348514</v>
+        <v>1.925492178974402e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.557447104114149e-07</v>
+        <v>0.08102657305139659</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.925492178974402e-06</v>
+        <v>0.3928631789289024</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08102657305139659</v>
+        <v>0.1605096029672645</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3928631789289024</v>
+        <v>1.918570113423959</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1605096029672645</v>
+        <v>2.732930147255094</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.940212413868024</v>
+        <v>5.436454813158436</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.732930147255094</v>
+        <v>2.826150029374889e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.436454813158436</v>
+        <v>5050381378.671675</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.826150029374889e-17</v>
+        <v>2.393406504998222e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5050381378.671675</v>
+        <v>720.8477765197173</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.393406504998222e-08</v>
+        <v>0.0001518966248494302</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>720.8477765197173</v>
+        <v>9.610077050370396</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001518966248494302</v>
+        <v>1.211395579376651</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.610077050370396</v>
+        <v>0.01402819723360383</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.211395579376651</v>
+        <v>3.394392578425559</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01402819723360383</v>
+        <v>0.9612766925810446</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.394392578425559</v>
+        <v>1.05703418061387</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9612766925810446</v>
+        <v>202</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.05703418061387</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.617637477043529</v>
       </c>
     </row>
@@ -2840,72 +2798,66 @@
         <v>1.726914631730536e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.447500062497637</v>
+        <v>1.088824548395623e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.42400257008644</v>
+        <v>1.926854905115686e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.088824548395623e-07</v>
+        <v>0.05687721737904206</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.926854905115686e-06</v>
+        <v>0.3691884207539769</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05687721737904206</v>
+        <v>0.1391902718380678</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3691884207539769</v>
+        <v>1.917163197176724</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1391902718380678</v>
+        <v>2.597775373938668</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.937068211986971</v>
+        <v>5.491426754826496</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.597775373938668</v>
+        <v>2.769850874035412e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.491426754826496</v>
+        <v>5210976087.470012</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.769850874035412e-17</v>
+        <v>2.325945409045043e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5210976087.470012</v>
+        <v>752.1328343521793</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.325945409045043e-08</v>
+        <v>0.0001524547004904395</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>752.1328343521793</v>
+        <v>8.688726053852832</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001524547004904395</v>
+        <v>1.495850949619411</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.688726053852832</v>
+        <v>0.01150940912754975</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.495850949619411</v>
+        <v>3.751452239060925</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01150940912754975</v>
+        <v>0.9614630218143806</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.751452239060925</v>
+        <v>1.04942537803002</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9614630218143806</v>
+        <v>216</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.04942537803002</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.271354932028132</v>
       </c>
     </row>
@@ -2920,72 +2872,66 @@
         <v>1.514179321515173e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.6639317190732571</v>
+        <v>7.486247114910494e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2936474329552707</v>
+        <v>1.927524115915847e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.486247114910494e-08</v>
+        <v>0.02585272842283704</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.927524115915847e-06</v>
+        <v>0.3096700022681293</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02585272842283704</v>
+        <v>0.09632840883385319</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3096700022681293</v>
+        <v>1.920714418867895</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.09632840883385319</v>
+        <v>2.464277725740376</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.93500701007913</v>
+        <v>5.861461740296536</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.464277725740376</v>
+        <v>2.431167655729336e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.861461740296536</v>
+        <v>5899445185.001127</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.431167655729336e-17</v>
+        <v>2.053665889670764e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5899445185.001127</v>
+        <v>846.1303043459341</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.053665889670764e-08</v>
+        <v>0.0001276047426902526</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>846.1303043459341</v>
+        <v>9.302347993948318</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001276047426902526</v>
+        <v>1.419740289715979</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.302347993948318</v>
+        <v>0.01104210774081775</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.419740289715979</v>
+        <v>4.425421552427053</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01104210774081775</v>
+        <v>0.9615439372041199</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.425421552427053</v>
+        <v>1.027644510078388</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9615439372041199</v>
+        <v>220</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.027644510078388</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.918860023132425</v>
       </c>
     </row>
@@ -3000,72 +2946,66 @@
         <v>1.470544484312977e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5146732692169796</v>
+        <v>5.248762158701248e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8333283744802302</v>
+        <v>1.927688886215702e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.248762158701248e-08</v>
+        <v>-0.002378950693387179</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.927688886215702e-06</v>
+        <v>0.2354825137586039</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.002378950693387179</v>
+        <v>0.05532896155669019</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2354825137586039</v>
+        <v>1.926750061354248</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05532896155669019</v>
+        <v>2.534546969558704</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.942308196547924</v>
+        <v>5.48094868693849</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.534546969558704</v>
+        <v>2.016870381293571e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.48094868693849</v>
+        <v>7101332287.405531</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.016870381293571e-17</v>
+        <v>1.710879413613595e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7101332287.405531</v>
+        <v>1017.085956252409</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.710879413613595e-08</v>
+        <v>9.120548855398774e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1017.085956252409</v>
+        <v>12.90577073885392</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.120548855398774e-05</v>
+        <v>1.011067843590026</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.90577073885392</v>
+        <v>0.01519108752239944</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.011067843590026</v>
+        <v>5.278776604640733</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01519108752239944</v>
+        <v>0.96095971713565</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.278776604640733</v>
+        <v>1.013395000239405</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.96095971713565</v>
+        <v>220</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.013395000239405</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>6.965355407528827</v>
       </c>
     </row>
@@ -3442,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.262710055671233</v>
+        <v>1.28100057478996</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.589272299153758</v>
@@ -3531,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.277878761403268</v>
+        <v>1.296131504092598</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.277408672541093</v>
@@ -3620,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.304855339817132</v>
+        <v>1.321680369424396</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.538083524244775</v>
@@ -3709,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.294447417383622</v>
+        <v>1.310716373336955</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.258753066852408</v>
@@ -3798,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.294058919487751</v>
+        <v>1.315011055574205</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.459081053388468</v>
@@ -3887,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.292247767414544</v>
+        <v>1.315506620007067</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.567438010674354</v>
@@ -3976,7 +3916,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.290862972706568</v>
+        <v>1.305474643891469</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.486957182336822</v>
@@ -4065,7 +4005,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.260561090723877</v>
+        <v>1.276644663781943</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.556424465835107</v>
@@ -4154,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.252237115239906</v>
+        <v>1.265789186954977</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.59988971586093</v>
@@ -4243,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.247176378747908</v>
+        <v>1.258327590741275</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.38485805921735</v>
@@ -4332,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.246756425157912</v>
+        <v>1.256685775845271</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.511718661598375</v>
@@ -4421,7 +4361,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.254394976422594</v>
+        <v>1.259175254406741</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.474811677738046</v>
@@ -4510,7 +4450,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.261958599180922</v>
+        <v>1.267569555112525</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.211228933574059</v>
@@ -4599,7 +4539,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.27394589070899</v>
+        <v>1.27992923454491</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.993816304514991</v>
@@ -4688,7 +4628,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.280470187598692</v>
+        <v>1.288500926468855</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.979908610445387</v>
@@ -4777,7 +4717,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.289626811620197</v>
+        <v>1.298939352532376</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.962706449237857</v>
@@ -4866,7 +4806,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.294350688357961</v>
+        <v>1.302923138926119</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.000129354064429</v>
@@ -4955,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.281638432779914</v>
+        <v>1.2846387835626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.92522444084285</v>
@@ -5044,7 +4984,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.296403040586291</v>
+        <v>1.30236082118521</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.060992694194282</v>
@@ -5133,7 +5073,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.310819582878738</v>
+        <v>1.317276731176389</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.981642731785703</v>
@@ -5222,7 +5162,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.306389531518678</v>
+        <v>1.301763168604501</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.046801623275079</v>
@@ -5311,7 +5251,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.295659935438062</v>
+        <v>1.295589067260649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.879323079804933</v>
@@ -5400,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.29758956260109</v>
+        <v>1.295479651410241</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.054208166227113</v>
@@ -5489,7 +5429,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.290054871780707</v>
+        <v>1.292009364685747</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.04445058963093</v>
@@ -5578,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.277083315831801</v>
+        <v>1.280878173373126</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.012732165544413</v>
@@ -5667,7 +5607,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.27649425515455</v>
+        <v>1.279449709139006</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.041195703784328</v>
@@ -5756,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.277200588275336</v>
+        <v>1.279065372865124</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.09185537654562</v>
@@ -5845,7 +5785,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.28876527393099</v>
+        <v>1.290724409742513</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.110955488631638</v>
@@ -5934,7 +5874,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.280896342560621</v>
+        <v>1.282091505278546</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.581876757053689</v>
@@ -6023,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.270125518192152</v>
+        <v>1.267057219418361</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.626180590517627</v>
@@ -6112,7 +6052,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.247407704564209</v>
+        <v>1.239705997291194</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.379711883419374</v>
@@ -6201,7 +6141,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.236844519005122</v>
+        <v>1.22908916829775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.441097580670049</v>
@@ -6290,7 +6230,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.236597374986416</v>
+        <v>1.230547816451629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.433583610047596</v>
@@ -6379,7 +6319,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.236681869011606</v>
+        <v>1.230620385523161</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.462895153763403</v>
@@ -6468,7 +6408,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.233457735773351</v>
+        <v>1.221466382448756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.350331435125585</v>
@@ -6557,7 +6497,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.230315964151088</v>
+        <v>1.222289132044819</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.262755437448132</v>
@@ -6646,7 +6586,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.257079154854928</v>
+        <v>1.249000773736916</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.459860536729332</v>
@@ -6735,7 +6675,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.270210274159348</v>
+        <v>1.262653628387894</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.452595596016824</v>
@@ -6824,7 +6764,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.267842554582484</v>
+        <v>1.258872430530633</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.149294686495193</v>
@@ -6913,7 +6853,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.282896087340849</v>
+        <v>1.27547194004264</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.058946744238474</v>
@@ -7002,7 +6942,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.2922563238072</v>
+        <v>1.285188690684908</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.09185795290069</v>
@@ -7091,7 +7031,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.288535912519238</v>
+        <v>1.282883827539966</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.119419825170555</v>
@@ -7180,7 +7120,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.280478091598538</v>
+        <v>1.274039204739317</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.070368225304421</v>
@@ -7269,7 +7209,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.289440416345612</v>
+        <v>1.285077499999121</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.13430664282645</v>
@@ -7358,7 +7298,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.309913704623967</v>
+        <v>1.307595938997572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.053246861982925</v>
@@ -7447,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.329168722910065</v>
+        <v>1.325634393962108</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.948467460879629</v>
@@ -7536,7 +7476,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.335702553315419</v>
+        <v>1.337558995911017</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.969856656890818</v>
@@ -7625,7 +7565,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.359697762239565</v>
+        <v>1.363797723929354</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.95863512380451</v>
@@ -7714,7 +7654,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.362429664464894</v>
+        <v>1.364954818442771</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.951950905798468</v>
@@ -7803,7 +7743,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.392236751635755</v>
+        <v>1.397395979955327</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.876877252073839</v>
@@ -7892,7 +7832,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.437950210288616</v>
+        <v>1.447215491359262</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.938352362928372</v>
@@ -7981,7 +7921,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.428208235982999</v>
+        <v>1.444426493692194</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.931113473168599</v>
@@ -8070,7 +8010,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.453033682810722</v>
+        <v>1.468707528944672</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.866443761892407</v>
@@ -8356,7 +8296,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.204720595115815</v>
+        <v>1.191265025635983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.077381082343536</v>
@@ -8445,7 +8385,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.190003985844988</v>
+        <v>1.176583305546375</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.033930602326537</v>
@@ -8534,7 +8474,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.190816771527193</v>
+        <v>1.178072196362892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.105551248610631</v>
@@ -8623,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.1848118996499</v>
+        <v>1.171478993438127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.942255464377726</v>
@@ -8712,7 +8652,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.184458670622484</v>
+        <v>1.174503587964453</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.026756051995593</v>
@@ -8801,7 +8741,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.188442663254238</v>
+        <v>1.177020767304557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.978300012647915</v>
@@ -8890,7 +8830,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.191992607572199</v>
+        <v>1.185909725939134</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.043070897114001</v>
@@ -8979,7 +8919,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.186898750831783</v>
+        <v>1.179158467181535</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.983274998675414</v>
@@ -9068,7 +9008,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.188289410089857</v>
+        <v>1.180204985718993</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.952212938215781</v>
@@ -9157,7 +9097,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.180197507041912</v>
+        <v>1.166100024069644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.926950765341868</v>
@@ -9246,7 +9186,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.160608870228657</v>
+        <v>1.145503048806055</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.95017696115177</v>
@@ -9335,7 +9275,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.161011762180843</v>
+        <v>1.148296802787219</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.040277426401495</v>
@@ -9424,7 +9364,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.171377152013436</v>
+        <v>1.159493556106985</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.011640536203094</v>
@@ -9513,7 +9453,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.144061264509128</v>
+        <v>1.128437077997187</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.544565912797719</v>
@@ -9602,7 +9542,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.148861915205224</v>
+        <v>1.1386711383736</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.567453668642751</v>
@@ -9691,7 +9631,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.167818426141591</v>
+        <v>1.159334151121366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.522099589412515</v>
@@ -9780,7 +9720,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.178943867771958</v>
+        <v>1.172560212738585</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.563320931899685</v>
@@ -9869,7 +9809,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.186457717359451</v>
+        <v>1.176999083670679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.53600252611207</v>
@@ -9958,7 +9898,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.199945949583209</v>
+        <v>1.192299324784249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.536211129622313</v>
@@ -10047,7 +9987,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.202724474418445</v>
+        <v>1.196817545727056</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.5612248250689</v>
@@ -10136,7 +10076,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.204141678157704</v>
+        <v>1.193765052298706</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.562633651771045</v>
@@ -10225,7 +10165,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.201499482241106</v>
+        <v>1.192902436756372</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.583721403765427</v>
@@ -10314,7 +10254,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.215391049475447</v>
+        <v>1.209941506401118</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.590342134239417</v>
@@ -10403,7 +10343,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.225271049920975</v>
+        <v>1.220669176281891</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.597847273406651</v>
@@ -10492,7 +10432,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.230188533375157</v>
+        <v>1.22755251634323</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.596984578340472</v>
@@ -10581,7 +10521,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.236997090589316</v>
+        <v>1.237788957303956</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.59793174402018</v>
@@ -10670,7 +10610,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.241901658983527</v>
+        <v>1.241186978168948</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.619978478110821</v>
@@ -10759,7 +10699,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.245442375514923</v>
+        <v>1.245883014988518</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.574888115660249</v>
@@ -10848,7 +10788,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.337107844478232</v>
+        <v>1.345090286899195</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.223171240112527</v>
@@ -10937,7 +10877,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.330145297786642</v>
+        <v>1.3369404720728</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.369748983410365</v>
@@ -11026,7 +10966,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.316876534222782</v>
+        <v>1.320760125109731</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.350187770824367</v>
@@ -11115,7 +11055,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.303623593129982</v>
+        <v>1.30598874984137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.311848516893089</v>
@@ -11204,7 +11144,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.301729927487722</v>
+        <v>1.308018612459141</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.296543737624916</v>
@@ -11293,7 +11233,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.304336570031015</v>
+        <v>1.307358774894315</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.504992565048966</v>
@@ -11382,7 +11322,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.293113359857693</v>
+        <v>1.290126792077098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.317027040094101</v>
@@ -11471,7 +11411,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312858062744456</v>
+        <v>1.313594204039196</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.268420130963159</v>
@@ -11560,7 +11500,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.304656176512877</v>
+        <v>1.303327441696069</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.185804540874047</v>
@@ -11649,7 +11589,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.289652966999559</v>
+        <v>1.284811635976692</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.335622327512121</v>
@@ -11738,7 +11678,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282440382488608</v>
+        <v>1.279644357942846</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.258925718733583</v>
@@ -11827,7 +11767,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.282649979799126</v>
+        <v>1.279177308508801</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.276783983978571</v>
@@ -11916,7 +11856,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.276647199264166</v>
+        <v>1.27088468499474</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.194804111867725</v>
@@ -12005,7 +11945,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.28713512978188</v>
+        <v>1.284784284644813</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.072462986531713</v>
@@ -12094,7 +12034,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.278881953886803</v>
+        <v>1.277669962402467</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.197231506781472</v>
@@ -12183,7 +12123,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.292061282646457</v>
+        <v>1.288248039019159</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.108597393840755</v>
@@ -12272,7 +12212,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.326132512597619</v>
+        <v>1.318960072510379</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.290478873536403</v>
@@ -12361,7 +12301,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.342885950212052</v>
+        <v>1.334319502392134</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.142188255790416</v>
@@ -12450,7 +12390,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.371445308102724</v>
+        <v>1.360968724400543</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.168492462839015</v>
@@ -12539,7 +12479,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.393585644501337</v>
+        <v>1.38895600804461</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.214796243251627</v>
@@ -12628,7 +12568,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.415735057408766</v>
+        <v>1.404239957772975</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.295181487921449</v>
@@ -12717,7 +12657,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.4590957044615</v>
+        <v>1.445854923762136</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.285218606760764</v>
@@ -12806,7 +12746,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.488127040051682</v>
+        <v>1.47441498618183</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.289680170416717</v>
@@ -12895,7 +12835,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.544278217550892</v>
+        <v>1.53038496148203</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.241686799442323</v>
@@ -12984,7 +12924,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.588142983747208</v>
+        <v>1.566282656248253</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.498503169286899</v>
@@ -13270,7 +13210,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.462460774465074</v>
+        <v>1.488361524992138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.622762199462326</v>
@@ -13359,7 +13299,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.459569631661881</v>
+        <v>1.485953346331463</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.495792067523964</v>
@@ -13448,7 +13388,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.474541470034962</v>
+        <v>1.501402229631284</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.600147176354101</v>
@@ -13537,7 +13477,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.470782503560927</v>
+        <v>1.498355254232512</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.299463116102767</v>
@@ -13626,7 +13566,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.485630915150341</v>
+        <v>1.519767960649858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.493873309315633</v>
@@ -13715,7 +13655,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485285184846571</v>
+        <v>1.521219871739133</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.496688101879141</v>
@@ -13804,7 +13744,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490418534769716</v>
+        <v>1.522108681353306</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.489018554582208</v>
@@ -13893,7 +13833,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.468850621964005</v>
+        <v>1.502979101227712</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.536237070083911</v>
@@ -13982,7 +13922,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.455725600722202</v>
+        <v>1.486699992041567</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.503313613817707</v>
@@ -14071,7 +14011,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425232489764823</v>
+        <v>1.454559818178908</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.312108177063662</v>
@@ -14160,7 +14100,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.369233231761244</v>
+        <v>1.375287162516046</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.740243655010926</v>
@@ -14249,7 +14189,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.346310839690391</v>
+        <v>1.35739155760436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.761428154201534</v>
@@ -14338,7 +14278,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365512592272747</v>
+        <v>1.374251771341463</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.736587329107818</v>
@@ -14427,7 +14367,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330611202743738</v>
+        <v>1.330001117881123</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.583045948942176</v>
@@ -14516,7 +14456,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.343053481647412</v>
+        <v>1.348871135231881</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.593276433335892</v>
@@ -14605,7 +14545,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351702769813627</v>
+        <v>1.358681102936558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.583009344575376</v>
@@ -14694,7 +14634,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.368578256443505</v>
+        <v>1.375257172457555</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.606718238449228</v>
@@ -14783,7 +14723,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.359587620186021</v>
+        <v>1.366248932280199</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.596371281908412</v>
@@ -14872,7 +14812,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.368685564517295</v>
+        <v>1.37661262519062</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.614060290819314</v>
@@ -14961,7 +14901,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.372149821681573</v>
+        <v>1.378123329455562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.604251285071415</v>
@@ -15050,7 +14990,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.36539249278188</v>
+        <v>1.368219071451288</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.615807768509379</v>
@@ -15139,7 +15079,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.363739990679903</v>
+        <v>1.367742272614173</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.592772682614903</v>
@@ -15228,7 +15168,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.371025033800592</v>
+        <v>1.37723002099907</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.623878747672629</v>
@@ -15317,7 +15257,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.373940780768898</v>
+        <v>1.38328743821217</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.627403616460967</v>
@@ -15406,7 +15346,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.373420295682305</v>
+        <v>1.38336480763129</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.628212396647273</v>
@@ -15495,7 +15435,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.431984705830408</v>
+        <v>1.443209073775203</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.615150462095363</v>
@@ -15584,7 +15524,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.441934198077061</v>
+        <v>1.45095830153331</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.58620904740429</v>
@@ -15673,7 +15613,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.443109628013874</v>
+        <v>1.452630258600647</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.607207001357525</v>
@@ -15762,7 +15702,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.516996858436007</v>
+        <v>1.5327087130726</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.295752578153124</v>
@@ -15851,7 +15791,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.487618376385378</v>
+        <v>1.495190292537639</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.621194239461478</v>
@@ -15940,7 +15880,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468713496287084</v>
+        <v>1.473831487421463</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.683938129343258</v>
@@ -16029,7 +15969,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.446246965170479</v>
+        <v>1.449981037164902</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.62755935861482</v>
@@ -16118,7 +16058,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.443692165630815</v>
+        <v>1.44642788767997</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.61258708653075</v>
@@ -16207,7 +16147,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.438671154263302</v>
+        <v>1.440937795838952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.685685608790053</v>
@@ -16296,7 +16236,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.434229932273977</v>
+        <v>1.432787884679353</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.550077281972577</v>
@@ -16385,7 +16325,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.440508933922921</v>
+        <v>1.438329164295065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.475363570639788</v>
@@ -16474,7 +16414,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.457962553550788</v>
+        <v>1.453732247745555</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.686107234567325</v>
@@ -16563,7 +16503,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.463344833456466</v>
+        <v>1.456341836135798</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.849392387192645</v>
@@ -16652,7 +16592,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.459335895590217</v>
+        <v>1.452040087829445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.65308849918674</v>
@@ -16741,7 +16681,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.477008713631881</v>
+        <v>1.471408656273284</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.561287426008821</v>
@@ -16830,7 +16770,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479949647362236</v>
+        <v>1.477948544824961</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.568981597559427</v>
@@ -16919,7 +16859,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.467306910451715</v>
+        <v>1.464240563102686</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.610984612452659</v>
@@ -17008,7 +16948,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.297877261710004</v>
+        <v>1.294266041965715</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.515960804252912</v>
@@ -17097,7 +17037,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.285931736768839</v>
+        <v>1.278252659840618</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.524433400955852</v>
@@ -17186,7 +17126,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.281176290049034</v>
+        <v>1.274171322633527</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.521700098862292</v>
@@ -17275,7 +17215,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.281534867350431</v>
+        <v>1.27147311766339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.527538550329423</v>
@@ -17364,7 +17304,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.287301048341966</v>
+        <v>1.281086861385103</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.533319698771102</v>
@@ -17453,7 +17393,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.297046871888067</v>
+        <v>1.294779856170236</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.544296529314937</v>
@@ -17542,7 +17482,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.300794936578558</v>
+        <v>1.297383795614006</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.542095645840237</v>
@@ -17631,7 +17571,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.309990842164436</v>
+        <v>1.30800202067973</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.544383468776813</v>
@@ -17720,7 +17660,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.316490422270884</v>
+        <v>1.315066451772433</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.536636469059323</v>
@@ -17809,7 +17749,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.312281449646167</v>
+        <v>1.312671658054518</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.525362420957621</v>
@@ -17898,7 +17838,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.311074262025127</v>
+        <v>1.309702616259718</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.525564226082002</v>
@@ -18184,7 +18124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601198094348049</v>
+        <v>1.610803562899833</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.624205522338261</v>
@@ -18273,7 +18213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600703867868586</v>
+        <v>1.609232522207035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.522977279651591</v>
@@ -18362,7 +18302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.625430199051483</v>
+        <v>1.631736261876813</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.575259733201719</v>
@@ -18451,7 +18391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624056318230444</v>
+        <v>1.626604042778749</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.437710583723405</v>
@@ -18540,7 +18480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.617292699979442</v>
+        <v>1.625429050842085</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.606998978971629</v>
@@ -18629,7 +18569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622759412450031</v>
+        <v>1.632553973948378</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.594419953452142</v>
@@ -18718,7 +18658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630610047168131</v>
+        <v>1.63664920999507</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.554369298186792</v>
@@ -18807,7 +18747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.609353703473016</v>
+        <v>1.621262610180731</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.662904562221434</v>
@@ -18896,7 +18836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596247428934826</v>
+        <v>1.60579732719423</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.501373381565933</v>
@@ -18985,7 +18925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56960327009234</v>
+        <v>1.573565458338557</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.435819589621626</v>
@@ -19074,7 +19014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534873857530837</v>
+        <v>1.534271409630787</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.413658779699036</v>
@@ -19163,7 +19103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536860338652982</v>
+        <v>1.532986831686962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.701554342824246</v>
@@ -19252,7 +19192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534024820508183</v>
+        <v>1.535256129189622</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.452483801425215</v>
@@ -19341,7 +19281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.516035582022995</v>
+        <v>1.522634849559975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.781809197268781</v>
@@ -19430,7 +19370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525016109647622</v>
+        <v>1.537144502461321</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.814128306651662</v>
@@ -19519,7 +19459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550944563065383</v>
+        <v>1.564520031875784</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.784340137715672</v>
@@ -19608,7 +19548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56859966707103</v>
+        <v>1.582887735659018</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.841839931558632</v>
@@ -19697,7 +19637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557806378276886</v>
+        <v>1.57198528681821</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.845899970502143</v>
@@ -19786,7 +19726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57066178005161</v>
+        <v>1.587374167140243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.83275683486875</v>
@@ -19875,7 +19815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.585755281114329</v>
+        <v>1.600147810271932</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.846129259488006</v>
@@ -19964,7 +19904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574983324489646</v>
+        <v>1.58369860545386</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.85101791790989</v>
@@ -20053,7 +19993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565560594123082</v>
+        <v>1.577760346945558</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.88884447117616</v>
@@ -20142,7 +20082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.579704690661942</v>
+        <v>1.592443697352713</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.887160749600208</v>
@@ -20231,7 +20171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583475135108761</v>
+        <v>1.600488350267308</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.903016002764081</v>
@@ -20320,7 +20260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.570771765280756</v>
+        <v>1.58926724824053</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.916533037702262</v>
@@ -20409,7 +20349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581680005613654</v>
+        <v>1.5989307685181</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.917652466154502</v>
@@ -20498,7 +20438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58161340847777</v>
+        <v>1.598866465846424</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.906347712474683</v>
@@ -20587,7 +20527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583211211350527</v>
+        <v>1.599387855075326</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.869615017572924</v>
@@ -20676,7 +20616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607010396151297</v>
+        <v>1.621159083419337</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.044202656797448</v>
@@ -20765,7 +20705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586108166521365</v>
+        <v>1.592680229658909</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.799314611045446</v>
@@ -20854,7 +20794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550348560932888</v>
+        <v>1.555749741962508</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.086682459530097</v>
@@ -20943,7 +20883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535584880397274</v>
+        <v>1.53386168742057</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.876649486655888</v>
@@ -21032,7 +20972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.531945783738893</v>
+        <v>1.527543932575198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.859901621316892</v>
@@ -21121,7 +21061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52465187170456</v>
+        <v>1.520981317520087</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.875980847519856</v>
@@ -21210,7 +21150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.51073921555635</v>
+        <v>1.502833810967471</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.718821756815159</v>
@@ -21299,7 +21239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.502448090559458</v>
+        <v>1.495515671599631</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.786726997446427</v>
@@ -21388,7 +21328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.519393673320573</v>
+        <v>1.511616419401911</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.705214935494867</v>
@@ -21477,7 +21417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517023068485486</v>
+        <v>1.504309750567571</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.053350213702891</v>
@@ -21566,7 +21506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51871242389278</v>
+        <v>1.504282712439649</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.79298929943649</v>
@@ -21655,7 +21595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53632549992121</v>
+        <v>1.518497488435378</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.811127735380763</v>
@@ -21744,7 +21684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536293042898249</v>
+        <v>1.518409108331369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.79176866468522</v>
@@ -21833,7 +21773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.534121675073286</v>
+        <v>1.518519242831493</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.704239318738332</v>
@@ -21922,7 +21862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525255829827477</v>
+        <v>1.511841591756119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.920291798028629</v>
@@ -22011,7 +21951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535184261063144</v>
+        <v>1.52339205215924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.771354483837723</v>
@@ -22100,7 +22040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.559249998715848</v>
+        <v>1.546637720699229</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.685824725554252</v>
@@ -22189,7 +22129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.575377423179673</v>
+        <v>1.561923296243462</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.624940887247366</v>
@@ -22278,7 +22218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573989205197452</v>
+        <v>1.5706664458897</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.515948838848493</v>
@@ -22367,7 +22307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.595196811214196</v>
+        <v>1.59832958741701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.407670052458251</v>
@@ -22456,7 +22396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608760476481576</v>
+        <v>1.61212450576593</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.470384981374578</v>
@@ -22545,7 +22485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.640999968816345</v>
+        <v>1.644195633335412</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.384888879790411</v>
@@ -22634,7 +22574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.680817668895522</v>
+        <v>1.686902166612078</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.606039497196154</v>
@@ -22723,7 +22663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.688573008404602</v>
+        <v>1.698780779086136</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.61236436300955</v>
@@ -22812,7 +22752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.695762829061629</v>
+        <v>1.707664034440223</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.469534980795056</v>
@@ -23098,7 +23038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.169773271769039</v>
+        <v>1.161488291062729</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.17982430850274</v>
@@ -23187,7 +23127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.161077228075091</v>
+        <v>1.153235620053889</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.05806021380585</v>
@@ -23276,7 +23216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.163480938131855</v>
+        <v>1.153775815324899</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.041820984029147</v>
@@ -23365,7 +23305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.148055807007253</v>
+        <v>1.140781329632176</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.073778944724234</v>
@@ -23454,7 +23394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.142401513695924</v>
+        <v>1.136753479047329</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.276767591675465</v>
@@ -23543,7 +23483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.146505273637727</v>
+        <v>1.140122829047751</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.219647449545592</v>
@@ -23632,7 +23572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.141905484528349</v>
+        <v>1.136291806225296</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.223671008264314</v>
@@ -23721,7 +23661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.14126401421402</v>
+        <v>1.136560607484558</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.17780153728332</v>
@@ -23810,7 +23750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.139426632916031</v>
+        <v>1.134262786389709</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.123720717600955</v>
@@ -23899,7 +23839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.129679304950097</v>
+        <v>1.119505412590391</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.200505115071723</v>
@@ -23988,7 +23928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.138667513375979</v>
+        <v>1.125107111572551</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.062877509453748</v>
@@ -24077,7 +24017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.139823664541163</v>
+        <v>1.127148767774202</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.096348388532285</v>
@@ -24166,7 +24106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.154621850348636</v>
+        <v>1.14185812577971</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.182678504497738</v>
@@ -24255,7 +24195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.168374889490748</v>
+        <v>1.148888924984282</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.678098596218092</v>
@@ -24344,7 +24284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.174959447080458</v>
+        <v>1.160141362225026</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.68501063150954</v>
@@ -24433,7 +24373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.184185833986336</v>
+        <v>1.17061338983465</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.645486720662406</v>
@@ -24522,7 +24462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.196895611811632</v>
+        <v>1.184707364920235</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.712074980886508</v>
@@ -24611,7 +24551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.203447459643469</v>
+        <v>1.192809892386143</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.632134349110883</v>
@@ -24700,7 +24640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.224120340732926</v>
+        <v>1.214106201174836</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.691122616859239</v>
@@ -24789,7 +24729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.237400563012935</v>
+        <v>1.226804495134727</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.681260825935812</v>
@@ -24878,7 +24818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.242534797245841</v>
+        <v>1.232204452759695</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.602303863709986</v>
@@ -24967,7 +24907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.257391770961583</v>
+        <v>1.2473534347046</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.622894470944496</v>
@@ -25056,7 +24996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.274173718853931</v>
+        <v>1.268225028491174</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.638267707145568</v>
@@ -25145,7 +25085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.283918748987333</v>
+        <v>1.280451779074238</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.701056315725477</v>
@@ -25234,7 +25174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.294341282312242</v>
+        <v>1.294266253403057</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.660777639472705</v>
@@ -25323,7 +25263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.300628132395474</v>
+        <v>1.3027245916117</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.63542940033367</v>
@@ -25412,7 +25352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.308920815718872</v>
+        <v>1.306922563550322</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.672958318612709</v>
@@ -25501,7 +25441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.295024612217922</v>
+        <v>1.292414839072544</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.691815616515891</v>
@@ -25590,7 +25530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.283195999116751</v>
+        <v>1.28668650338793</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.310647484643022</v>
@@ -25679,7 +25619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.275575033827279</v>
+        <v>1.275127302814203</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.333023242263868</v>
@@ -25768,7 +25708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.268093213927457</v>
+        <v>1.263944612808444</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.197823501890034</v>
@@ -25857,7 +25797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.260673995237723</v>
+        <v>1.254155541503148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.31238288392089</v>
@@ -25946,7 +25886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.254812936224965</v>
+        <v>1.243022426351723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.197457157626446</v>
@@ -26035,7 +25975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.249385289635204</v>
+        <v>1.240495347494606</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.251585098875631</v>
@@ -26124,7 +26064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.25139000103171</v>
+        <v>1.237099597926641</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.004156383496442</v>
@@ -26213,7 +26153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.248914031320756</v>
+        <v>1.237331193140032</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.290429121009646</v>
@@ -26302,7 +26242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.253853800772817</v>
+        <v>1.242627314258058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.307493819094526</v>
@@ -26391,7 +26331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.24463666490683</v>
+        <v>1.229317253059135</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.146947545317824</v>
@@ -26480,7 +26420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.247617880906011</v>
+        <v>1.233811603679926</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.158593892482617</v>
@@ -26569,7 +26509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.245944588608991</v>
+        <v>1.229844004369833</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.224418720917729</v>
@@ -26658,7 +26598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.209141860693928</v>
+        <v>1.195178853135331</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.770530892050461</v>
@@ -26747,7 +26687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.201012226440215</v>
+        <v>1.189872814517102</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.804898390650133</v>
@@ -26836,7 +26776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.207563458500356</v>
+        <v>1.198022564864473</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.806237167911903</v>
@@ -26925,7 +26865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.22071781317832</v>
+        <v>1.215225839727856</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.710799585068381</v>
@@ -27014,7 +26954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.227089007297145</v>
+        <v>1.219138170892753</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.74849510649238</v>
@@ -27103,7 +27043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.215035824700108</v>
+        <v>1.208753493056742</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.800695299630741</v>
@@ -27192,7 +27132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.19467126833416</v>
+        <v>1.192463662825916</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.800233491915113</v>
@@ -27281,7 +27221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.197802476847382</v>
+        <v>1.195593095586203</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.819765269070053</v>
@@ -27370,7 +27310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.196595614454797</v>
+        <v>1.192545033912349</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.799034009042441</v>
@@ -27459,7 +27399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.198076970226436</v>
+        <v>1.193902340874126</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.790209858076983</v>
@@ -27548,7 +27488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.201195374438838</v>
+        <v>1.198359875169248</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.753791509038587</v>
@@ -27637,7 +27577,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.200814571402309</v>
+        <v>1.199166259678886</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.759134597914449</v>
@@ -27726,7 +27666,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.198389926303526</v>
+        <v>1.19673463437538</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.759858094247161</v>
@@ -28012,7 +27952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.363155460037706</v>
+        <v>1.384542376193834</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.759567695203937</v>
@@ -28101,7 +28041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.380965939454372</v>
+        <v>1.402612383234095</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.408970538324285</v>
@@ -28190,7 +28130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.427481538656766</v>
+        <v>1.446572084107479</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.780102109207214</v>
@@ -28279,7 +28219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.412288418835618</v>
+        <v>1.429184692604949</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.394969885224254</v>
@@ -28368,7 +28308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.401372207706508</v>
+        <v>1.424757340068001</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.572676296354007</v>
@@ -28457,7 +28397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.399332162015757</v>
+        <v>1.424466893672685</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.739032829098279</v>
@@ -28546,7 +28486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.396712463829806</v>
+        <v>1.41499428745286</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.623939201767973</v>
@@ -28635,7 +28575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.365363369513742</v>
+        <v>1.387358201588772</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.860900677765557</v>
@@ -28724,7 +28664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.356348882733227</v>
+        <v>1.37659363525852</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.914720545355621</v>
@@ -28813,7 +28753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.354083832111335</v>
+        <v>1.372322487306916</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.459233925338358</v>
@@ -28902,7 +28842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.342958380838635</v>
+        <v>1.358993599718343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.873791122987255</v>
@@ -28991,7 +28931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.325243585028584</v>
+        <v>1.33549213717159</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.566216266409633</v>
@@ -29080,7 +29020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.340684105250418</v>
+        <v>1.351685805819001</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.268970447109611</v>
@@ -29169,7 +29109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.341928420072121</v>
+        <v>1.347704220791313</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.925129531557665</v>
@@ -29258,7 +29198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.343813579675772</v>
+        <v>1.349072846101172</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.927875824403124</v>
@@ -29347,7 +29287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.356557505096972</v>
+        <v>1.362361416719904</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.897225117751885</v>
@@ -29436,7 +29376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.359904029948676</v>
+        <v>1.36507272594108</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.919737824116097</v>
@@ -29525,7 +29465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337087445567922</v>
+        <v>1.339968689355987</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.994651894470021</v>
@@ -29614,7 +29554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.365191730271506</v>
+        <v>1.368331882602111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.876060178233673</v>
@@ -29703,7 +29643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.39082884080376</v>
+        <v>1.393053743102974</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.911410010429062</v>
@@ -29792,7 +29732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.38338281203555</v>
+        <v>1.375965868243409</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.877806111265883</v>
@@ -29881,7 +29821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.369773911396285</v>
+        <v>1.369127650354238</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.119340618834203</v>
@@ -29970,7 +29910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.364973432610366</v>
+        <v>1.362096785797488</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.92236530410488</v>
@@ -30059,7 +29999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.356916680125809</v>
+        <v>1.35982726338666</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.923658760524487</v>
@@ -30148,7 +30088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.335202068653124</v>
+        <v>1.341447173928922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.97764513632881</v>
@@ -30237,7 +30177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.334235682177273</v>
+        <v>1.341222871519291</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.962303695696844</v>
@@ -30326,7 +30266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.334428136132136</v>
+        <v>1.341105975238003</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.91192089718985</v>
@@ -30415,7 +30355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.33961068593519</v>
+        <v>1.345480925687161</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.914699195826018</v>
@@ -30504,7 +30444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.340968579296912</v>
+        <v>1.351983427899596</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.542171970721649</v>
@@ -30593,7 +30533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.329024396922082</v>
+        <v>1.33615806240552</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.58063247304155</v>
@@ -30682,7 +30622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.298801206585489</v>
+        <v>1.301737117534623</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.468770655345844</v>
@@ -30771,7 +30711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.292717922289468</v>
+        <v>1.296477508429283</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.568613537715326</v>
@@ -30860,7 +30800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.300287482598679</v>
+        <v>1.305099601613442</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.497854299497041</v>
@@ -30949,7 +30889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.288678308336219</v>
+        <v>1.292803585111084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.615202365551838</v>
@@ -31038,7 +30978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.282937817833679</v>
+        <v>1.280753175527291</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.521841586255584</v>
@@ -31127,7 +31067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.276689957302964</v>
+        <v>1.276416977906584</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.336365503289995</v>
@@ -31216,7 +31156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.308243283524788</v>
+        <v>1.30646428840002</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.60844492421004</v>
@@ -31305,7 +31245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.332718085619388</v>
+        <v>1.329536339673977</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.570045477946334</v>
@@ -31394,7 +31334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.35184919268304</v>
+        <v>1.349319951926656</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.532458812757954</v>
@@ -31483,7 +31423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.378656696805373</v>
+        <v>1.377089567239404</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.418247055944019</v>
@@ -31572,7 +31512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.392296074989624</v>
+        <v>1.391328567903197</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.538788702119066</v>
@@ -31661,7 +31601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.390363882648999</v>
+        <v>1.388297437711499</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.543015445159199</v>
@@ -31750,7 +31690,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.38424085950422</v>
+        <v>1.38327512158481</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.491369061602624</v>
@@ -31839,7 +31779,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.399996119648537</v>
+        <v>1.399927643429834</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.654029152678593</v>
@@ -31928,7 +31868,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.435453379459252</v>
+        <v>1.437930722762446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.487432164820544</v>
@@ -32017,7 +31957,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.466063266065041</v>
+        <v>1.465450312708995</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.300412023447688</v>
@@ -32106,7 +32046,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.473524023964833</v>
+        <v>1.475142025656928</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.388974948703169</v>
@@ -32195,7 +32135,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502556891252373</v>
+        <v>1.506288852529968</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.368873170590286</v>
@@ -32284,7 +32224,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52537814877266</v>
+        <v>1.53020970017287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.359640922740316</v>
@@ -32373,7 +32313,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.575475622174438</v>
+        <v>1.580926714219894</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.190030585947973</v>
@@ -32462,7 +32402,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65801486305435</v>
+        <v>1.661072789314697</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.44727868086531</v>
@@ -32551,7 +32491,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657724179261856</v>
+        <v>1.665448781381633</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.392547287397693</v>
@@ -32640,7 +32580,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.684281604957777</v>
+        <v>1.694313385160521</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.351786404395106</v>
